--- a/data/old_posteriors/elementary_skills/simple_model/noleak/questions-skill-model1b_noleak.xlsx
+++ b/data/old_posteriors/elementary_skills/simple_model/noleak/questions-skill-model1b_noleak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/old_posteriors/elementary_skills/simple_model/noleak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED3712-4E32-0340-A49D-00459FAAD957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75E9E3C-93CD-0B4F-B5E7-EEFEC6178A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -595,6 +595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,9 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,11 +935,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B7A501-D8DC-5145-BD21-F7991AE9B547}">
   <dimension ref="A1:NI588"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="AB15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="88" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:AQ484"/>
+      <selection pane="bottomRight" activeCell="F488" sqref="F488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,62 +962,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:373" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="38" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="41"/>
     </row>
     <row r="2" spans="1:373" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1077,9 +1077,9 @@
       </c>
     </row>
     <row r="3" spans="1:373" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
@@ -1532,9 +1532,9 @@
       <c r="NI3" s="7"/>
     </row>
     <row r="4" spans="1:373" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="25" t="s">
         <v>62</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="5" spans="1:373" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43">
+      <c r="A5" s="38">
         <v>1</v>
       </c>
       <c r="B5" s="30">
@@ -49154,20 +49154,48 @@
       <c r="D325" s="3">
         <v>0.8</v>
       </c>
-      <c r="E325" s="32"/>
-      <c r="F325" s="32"/>
-      <c r="G325" s="32"/>
-      <c r="H325" s="32"/>
-      <c r="I325" s="32"/>
-      <c r="J325" s="32"/>
-      <c r="K325" s="32"/>
-      <c r="L325" s="32"/>
-      <c r="M325" s="32"/>
-      <c r="N325" s="32"/>
-      <c r="O325" s="32"/>
-      <c r="P325" s="32"/>
-      <c r="Q325" s="32"/>
-      <c r="R325" s="32"/>
+      <c r="E325" s="32">
+        <v>0</v>
+      </c>
+      <c r="F325" s="32">
+        <v>0</v>
+      </c>
+      <c r="G325" s="32">
+        <v>0</v>
+      </c>
+      <c r="H325" s="32">
+        <v>0</v>
+      </c>
+      <c r="I325" s="32">
+        <v>0</v>
+      </c>
+      <c r="J325" s="32">
+        <v>0</v>
+      </c>
+      <c r="K325" s="32">
+        <v>0</v>
+      </c>
+      <c r="L325" s="32">
+        <v>0</v>
+      </c>
+      <c r="M325" s="32">
+        <v>0</v>
+      </c>
+      <c r="N325" s="32">
+        <v>0</v>
+      </c>
+      <c r="O325" s="32">
+        <v>0</v>
+      </c>
+      <c r="P325" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q325" s="32">
+        <v>0</v>
+      </c>
+      <c r="R325" s="32">
+        <v>0</v>
+      </c>
       <c r="S325" s="32">
         <v>0</v>
       </c>
@@ -50286,20 +50314,48 @@
       <c r="D340" s="3">
         <v>0</v>
       </c>
-      <c r="E340" s="27"/>
-      <c r="F340" s="27"/>
-      <c r="G340" s="27"/>
-      <c r="H340" s="27"/>
-      <c r="I340" s="27"/>
-      <c r="J340" s="27"/>
-      <c r="K340" s="27"/>
-      <c r="L340" s="27"/>
-      <c r="M340" s="27"/>
-      <c r="N340" s="27"/>
-      <c r="O340" s="27"/>
-      <c r="P340" s="27"/>
-      <c r="Q340" s="27"/>
-      <c r="R340" s="27"/>
+      <c r="E340" s="27">
+        <v>0</v>
+      </c>
+      <c r="F340" s="27">
+        <v>0</v>
+      </c>
+      <c r="G340" s="27">
+        <v>0</v>
+      </c>
+      <c r="H340" s="27">
+        <v>0</v>
+      </c>
+      <c r="I340" s="27">
+        <v>0</v>
+      </c>
+      <c r="J340" s="27">
+        <v>0</v>
+      </c>
+      <c r="K340" s="27">
+        <v>0</v>
+      </c>
+      <c r="L340" s="27">
+        <v>0</v>
+      </c>
+      <c r="M340" s="27">
+        <v>0</v>
+      </c>
+      <c r="N340" s="27">
+        <v>0</v>
+      </c>
+      <c r="O340" s="27">
+        <v>0</v>
+      </c>
+      <c r="P340" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q340" s="27">
+        <v>0</v>
+      </c>
+      <c r="R340" s="27">
+        <v>0</v>
+      </c>
       <c r="S340" s="27">
         <v>0.8</v>
       </c>
@@ -50388,20 +50444,48 @@
       <c r="D341" s="3">
         <v>0</v>
       </c>
-      <c r="E341" s="27"/>
-      <c r="F341" s="27"/>
-      <c r="G341" s="27"/>
-      <c r="H341" s="27"/>
-      <c r="I341" s="27"/>
-      <c r="J341" s="27"/>
-      <c r="K341" s="27"/>
-      <c r="L341" s="27"/>
-      <c r="M341" s="27"/>
-      <c r="N341" s="27"/>
-      <c r="O341" s="27"/>
-      <c r="P341" s="27"/>
-      <c r="Q341" s="27"/>
-      <c r="R341" s="27"/>
+      <c r="E341" s="27">
+        <v>0</v>
+      </c>
+      <c r="F341" s="27">
+        <v>0</v>
+      </c>
+      <c r="G341" s="27">
+        <v>0</v>
+      </c>
+      <c r="H341" s="27">
+        <v>0</v>
+      </c>
+      <c r="I341" s="27">
+        <v>0</v>
+      </c>
+      <c r="J341" s="27">
+        <v>0</v>
+      </c>
+      <c r="K341" s="27">
+        <v>0</v>
+      </c>
+      <c r="L341" s="27">
+        <v>0</v>
+      </c>
+      <c r="M341" s="27">
+        <v>0</v>
+      </c>
+      <c r="N341" s="27">
+        <v>0</v>
+      </c>
+      <c r="O341" s="27">
+        <v>0</v>
+      </c>
+      <c r="P341" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q341" s="27">
+        <v>0</v>
+      </c>
+      <c r="R341" s="27">
+        <v>0</v>
+      </c>
       <c r="S341" s="27">
         <v>0</v>
       </c>
@@ -50490,20 +50574,48 @@
       <c r="D342" s="3">
         <v>0</v>
       </c>
-      <c r="E342" s="27"/>
-      <c r="F342" s="27"/>
-      <c r="G342" s="27"/>
-      <c r="H342" s="27"/>
-      <c r="I342" s="27"/>
-      <c r="J342" s="27"/>
-      <c r="K342" s="27"/>
-      <c r="L342" s="27"/>
-      <c r="M342" s="27"/>
-      <c r="N342" s="27"/>
-      <c r="O342" s="27"/>
-      <c r="P342" s="27"/>
-      <c r="Q342" s="27"/>
-      <c r="R342" s="27"/>
+      <c r="E342" s="27">
+        <v>0</v>
+      </c>
+      <c r="F342" s="27">
+        <v>0</v>
+      </c>
+      <c r="G342" s="27">
+        <v>0</v>
+      </c>
+      <c r="H342" s="27">
+        <v>0</v>
+      </c>
+      <c r="I342" s="27">
+        <v>0</v>
+      </c>
+      <c r="J342" s="27">
+        <v>0</v>
+      </c>
+      <c r="K342" s="27">
+        <v>0</v>
+      </c>
+      <c r="L342" s="27">
+        <v>0</v>
+      </c>
+      <c r="M342" s="27">
+        <v>0</v>
+      </c>
+      <c r="N342" s="27">
+        <v>0</v>
+      </c>
+      <c r="O342" s="27">
+        <v>0</v>
+      </c>
+      <c r="P342" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q342" s="27">
+        <v>0</v>
+      </c>
+      <c r="R342" s="27">
+        <v>0</v>
+      </c>
       <c r="S342" s="27">
         <v>0</v>
       </c>
@@ -50511,7 +50623,7 @@
         <v>0</v>
       </c>
       <c r="U342" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V342" s="27">
         <v>0</v>
@@ -50592,20 +50704,48 @@
       <c r="D343" s="3">
         <v>0</v>
       </c>
-      <c r="E343" s="27"/>
-      <c r="F343" s="27"/>
-      <c r="G343" s="27"/>
-      <c r="H343" s="27"/>
-      <c r="I343" s="27"/>
-      <c r="J343" s="27"/>
-      <c r="K343" s="27"/>
-      <c r="L343" s="27"/>
-      <c r="M343" s="27"/>
-      <c r="N343" s="27"/>
-      <c r="O343" s="27"/>
-      <c r="P343" s="27"/>
-      <c r="Q343" s="27"/>
-      <c r="R343" s="27"/>
+      <c r="E343" s="27">
+        <v>0</v>
+      </c>
+      <c r="F343" s="27">
+        <v>0</v>
+      </c>
+      <c r="G343" s="27">
+        <v>0</v>
+      </c>
+      <c r="H343" s="27">
+        <v>0</v>
+      </c>
+      <c r="I343" s="27">
+        <v>0</v>
+      </c>
+      <c r="J343" s="27">
+        <v>0</v>
+      </c>
+      <c r="K343" s="27">
+        <v>0</v>
+      </c>
+      <c r="L343" s="27">
+        <v>0</v>
+      </c>
+      <c r="M343" s="27">
+        <v>0</v>
+      </c>
+      <c r="N343" s="27">
+        <v>0</v>
+      </c>
+      <c r="O343" s="27">
+        <v>0</v>
+      </c>
+      <c r="P343" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q343" s="27">
+        <v>0</v>
+      </c>
+      <c r="R343" s="27">
+        <v>0</v>
+      </c>
       <c r="S343" s="27">
         <v>0</v>
       </c>
@@ -50694,20 +50834,48 @@
       <c r="D344" s="3">
         <v>0</v>
       </c>
-      <c r="E344" s="27"/>
-      <c r="F344" s="27"/>
-      <c r="G344" s="27"/>
-      <c r="H344" s="27"/>
-      <c r="I344" s="27"/>
-      <c r="J344" s="27"/>
-      <c r="K344" s="27"/>
-      <c r="L344" s="27"/>
-      <c r="M344" s="27"/>
-      <c r="N344" s="27"/>
-      <c r="O344" s="27"/>
-      <c r="P344" s="27"/>
-      <c r="Q344" s="27"/>
-      <c r="R344" s="27"/>
+      <c r="E344" s="27">
+        <v>0</v>
+      </c>
+      <c r="F344" s="27">
+        <v>0</v>
+      </c>
+      <c r="G344" s="27">
+        <v>0</v>
+      </c>
+      <c r="H344" s="27">
+        <v>0</v>
+      </c>
+      <c r="I344" s="27">
+        <v>0</v>
+      </c>
+      <c r="J344" s="27">
+        <v>0</v>
+      </c>
+      <c r="K344" s="27">
+        <v>0</v>
+      </c>
+      <c r="L344" s="27">
+        <v>0</v>
+      </c>
+      <c r="M344" s="27">
+        <v>0</v>
+      </c>
+      <c r="N344" s="27">
+        <v>0</v>
+      </c>
+      <c r="O344" s="27">
+        <v>0</v>
+      </c>
+      <c r="P344" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q344" s="27">
+        <v>0</v>
+      </c>
+      <c r="R344" s="27">
+        <v>0</v>
+      </c>
       <c r="S344" s="27">
         <v>0</v>
       </c>
@@ -50796,20 +50964,48 @@
       <c r="D345" s="3">
         <v>0</v>
       </c>
-      <c r="E345" s="27"/>
-      <c r="F345" s="27"/>
-      <c r="G345" s="27"/>
-      <c r="H345" s="27"/>
-      <c r="I345" s="27"/>
-      <c r="J345" s="27"/>
-      <c r="K345" s="27"/>
-      <c r="L345" s="27"/>
-      <c r="M345" s="27"/>
-      <c r="N345" s="27"/>
-      <c r="O345" s="27"/>
-      <c r="P345" s="27"/>
-      <c r="Q345" s="27"/>
-      <c r="R345" s="27"/>
+      <c r="E345" s="27">
+        <v>0</v>
+      </c>
+      <c r="F345" s="27">
+        <v>0</v>
+      </c>
+      <c r="G345" s="27">
+        <v>0</v>
+      </c>
+      <c r="H345" s="27">
+        <v>0</v>
+      </c>
+      <c r="I345" s="27">
+        <v>0</v>
+      </c>
+      <c r="J345" s="27">
+        <v>0</v>
+      </c>
+      <c r="K345" s="27">
+        <v>0</v>
+      </c>
+      <c r="L345" s="27">
+        <v>0</v>
+      </c>
+      <c r="M345" s="27">
+        <v>0</v>
+      </c>
+      <c r="N345" s="27">
+        <v>0</v>
+      </c>
+      <c r="O345" s="27">
+        <v>0</v>
+      </c>
+      <c r="P345" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q345" s="27">
+        <v>0</v>
+      </c>
+      <c r="R345" s="27">
+        <v>0</v>
+      </c>
       <c r="S345" s="27">
         <v>0</v>
       </c>
@@ -50898,20 +51094,48 @@
       <c r="D346" s="3">
         <v>0</v>
       </c>
-      <c r="E346" s="27"/>
-      <c r="F346" s="27"/>
-      <c r="G346" s="27"/>
-      <c r="H346" s="27"/>
-      <c r="I346" s="27"/>
-      <c r="J346" s="27"/>
-      <c r="K346" s="27"/>
-      <c r="L346" s="27"/>
-      <c r="M346" s="27"/>
-      <c r="N346" s="27"/>
-      <c r="O346" s="27"/>
-      <c r="P346" s="27"/>
-      <c r="Q346" s="27"/>
-      <c r="R346" s="27"/>
+      <c r="E346" s="27">
+        <v>0</v>
+      </c>
+      <c r="F346" s="27">
+        <v>0</v>
+      </c>
+      <c r="G346" s="27">
+        <v>0</v>
+      </c>
+      <c r="H346" s="27">
+        <v>0</v>
+      </c>
+      <c r="I346" s="27">
+        <v>0</v>
+      </c>
+      <c r="J346" s="27">
+        <v>0</v>
+      </c>
+      <c r="K346" s="27">
+        <v>0</v>
+      </c>
+      <c r="L346" s="27">
+        <v>0</v>
+      </c>
+      <c r="M346" s="27">
+        <v>0</v>
+      </c>
+      <c r="N346" s="27">
+        <v>0</v>
+      </c>
+      <c r="O346" s="27">
+        <v>0</v>
+      </c>
+      <c r="P346" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q346" s="27">
+        <v>0</v>
+      </c>
+      <c r="R346" s="27">
+        <v>0</v>
+      </c>
       <c r="S346" s="27">
         <v>0</v>
       </c>
@@ -50931,7 +51155,7 @@
         <v>0</v>
       </c>
       <c r="Y346" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z346" s="27">
         <v>0</v>
@@ -51000,20 +51224,48 @@
       <c r="D347" s="3">
         <v>0</v>
       </c>
-      <c r="E347" s="27"/>
-      <c r="F347" s="27"/>
-      <c r="G347" s="27"/>
-      <c r="H347" s="27"/>
-      <c r="I347" s="27"/>
-      <c r="J347" s="27"/>
-      <c r="K347" s="27"/>
-      <c r="L347" s="27"/>
-      <c r="M347" s="27"/>
-      <c r="N347" s="27"/>
-      <c r="O347" s="27"/>
-      <c r="P347" s="27"/>
-      <c r="Q347" s="27"/>
-      <c r="R347" s="27"/>
+      <c r="E347" s="27">
+        <v>0</v>
+      </c>
+      <c r="F347" s="27">
+        <v>0</v>
+      </c>
+      <c r="G347" s="27">
+        <v>0</v>
+      </c>
+      <c r="H347" s="27">
+        <v>0</v>
+      </c>
+      <c r="I347" s="27">
+        <v>0</v>
+      </c>
+      <c r="J347" s="27">
+        <v>0</v>
+      </c>
+      <c r="K347" s="27">
+        <v>0</v>
+      </c>
+      <c r="L347" s="27">
+        <v>0</v>
+      </c>
+      <c r="M347" s="27">
+        <v>0</v>
+      </c>
+      <c r="N347" s="27">
+        <v>0</v>
+      </c>
+      <c r="O347" s="27">
+        <v>0</v>
+      </c>
+      <c r="P347" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q347" s="27">
+        <v>0</v>
+      </c>
+      <c r="R347" s="27">
+        <v>0</v>
+      </c>
       <c r="S347" s="27">
         <v>0</v>
       </c>
@@ -51036,7 +51288,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA347" s="27">
         <v>0</v>
@@ -51102,20 +51354,48 @@
       <c r="D348" s="3">
         <v>0</v>
       </c>
-      <c r="E348" s="27"/>
-      <c r="F348" s="27"/>
-      <c r="G348" s="27"/>
-      <c r="H348" s="27"/>
-      <c r="I348" s="27"/>
-      <c r="J348" s="27"/>
-      <c r="K348" s="27"/>
-      <c r="L348" s="27"/>
-      <c r="M348" s="27"/>
-      <c r="N348" s="27"/>
-      <c r="O348" s="27"/>
-      <c r="P348" s="27"/>
-      <c r="Q348" s="27"/>
-      <c r="R348" s="27"/>
+      <c r="E348" s="27">
+        <v>0</v>
+      </c>
+      <c r="F348" s="27">
+        <v>0</v>
+      </c>
+      <c r="G348" s="27">
+        <v>0</v>
+      </c>
+      <c r="H348" s="27">
+        <v>0</v>
+      </c>
+      <c r="I348" s="27">
+        <v>0</v>
+      </c>
+      <c r="J348" s="27">
+        <v>0</v>
+      </c>
+      <c r="K348" s="27">
+        <v>0</v>
+      </c>
+      <c r="L348" s="27">
+        <v>0</v>
+      </c>
+      <c r="M348" s="27">
+        <v>0</v>
+      </c>
+      <c r="N348" s="27">
+        <v>0</v>
+      </c>
+      <c r="O348" s="27">
+        <v>0</v>
+      </c>
+      <c r="P348" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q348" s="27">
+        <v>0</v>
+      </c>
+      <c r="R348" s="27">
+        <v>0</v>
+      </c>
       <c r="S348" s="27">
         <v>0</v>
       </c>
@@ -51204,20 +51484,48 @@
       <c r="D349" s="3">
         <v>0</v>
       </c>
-      <c r="E349" s="27"/>
-      <c r="F349" s="27"/>
-      <c r="G349" s="27"/>
-      <c r="H349" s="27"/>
-      <c r="I349" s="27"/>
-      <c r="J349" s="27"/>
-      <c r="K349" s="27"/>
-      <c r="L349" s="27"/>
-      <c r="M349" s="27"/>
-      <c r="N349" s="27"/>
-      <c r="O349" s="27"/>
-      <c r="P349" s="27"/>
-      <c r="Q349" s="27"/>
-      <c r="R349" s="27"/>
+      <c r="E349" s="27">
+        <v>0</v>
+      </c>
+      <c r="F349" s="27">
+        <v>0</v>
+      </c>
+      <c r="G349" s="27">
+        <v>0</v>
+      </c>
+      <c r="H349" s="27">
+        <v>0</v>
+      </c>
+      <c r="I349" s="27">
+        <v>0</v>
+      </c>
+      <c r="J349" s="27">
+        <v>0</v>
+      </c>
+      <c r="K349" s="27">
+        <v>0</v>
+      </c>
+      <c r="L349" s="27">
+        <v>0</v>
+      </c>
+      <c r="M349" s="27">
+        <v>0</v>
+      </c>
+      <c r="N349" s="27">
+        <v>0</v>
+      </c>
+      <c r="O349" s="27">
+        <v>0</v>
+      </c>
+      <c r="P349" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q349" s="27">
+        <v>0</v>
+      </c>
+      <c r="R349" s="27">
+        <v>0</v>
+      </c>
       <c r="S349" s="27">
         <v>0</v>
       </c>
@@ -51306,20 +51614,48 @@
       <c r="D350" s="3">
         <v>0</v>
       </c>
-      <c r="E350" s="27"/>
-      <c r="F350" s="27"/>
-      <c r="G350" s="27"/>
-      <c r="H350" s="27"/>
-      <c r="I350" s="27"/>
-      <c r="J350" s="27"/>
-      <c r="K350" s="27"/>
-      <c r="L350" s="27"/>
-      <c r="M350" s="27"/>
-      <c r="N350" s="27"/>
-      <c r="O350" s="27"/>
-      <c r="P350" s="27"/>
-      <c r="Q350" s="27"/>
-      <c r="R350" s="27"/>
+      <c r="E350" s="27">
+        <v>0</v>
+      </c>
+      <c r="F350" s="27">
+        <v>0</v>
+      </c>
+      <c r="G350" s="27">
+        <v>0</v>
+      </c>
+      <c r="H350" s="27">
+        <v>0</v>
+      </c>
+      <c r="I350" s="27">
+        <v>0</v>
+      </c>
+      <c r="J350" s="27">
+        <v>0</v>
+      </c>
+      <c r="K350" s="27">
+        <v>0</v>
+      </c>
+      <c r="L350" s="27">
+        <v>0</v>
+      </c>
+      <c r="M350" s="27">
+        <v>0</v>
+      </c>
+      <c r="N350" s="27">
+        <v>0</v>
+      </c>
+      <c r="O350" s="27">
+        <v>0</v>
+      </c>
+      <c r="P350" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q350" s="27">
+        <v>0</v>
+      </c>
+      <c r="R350" s="27">
+        <v>0</v>
+      </c>
       <c r="S350" s="27">
         <v>0</v>
       </c>
@@ -51408,20 +51744,48 @@
       <c r="D351" s="3">
         <v>0</v>
       </c>
-      <c r="E351" s="27"/>
-      <c r="F351" s="27"/>
-      <c r="G351" s="27"/>
-      <c r="H351" s="27"/>
-      <c r="I351" s="27"/>
-      <c r="J351" s="27"/>
-      <c r="K351" s="27"/>
-      <c r="L351" s="27"/>
-      <c r="M351" s="27"/>
-      <c r="N351" s="27"/>
-      <c r="O351" s="27"/>
-      <c r="P351" s="27"/>
-      <c r="Q351" s="27"/>
-      <c r="R351" s="27"/>
+      <c r="E351" s="27">
+        <v>0</v>
+      </c>
+      <c r="F351" s="27">
+        <v>0</v>
+      </c>
+      <c r="G351" s="27">
+        <v>0</v>
+      </c>
+      <c r="H351" s="27">
+        <v>0</v>
+      </c>
+      <c r="I351" s="27">
+        <v>0</v>
+      </c>
+      <c r="J351" s="27">
+        <v>0</v>
+      </c>
+      <c r="K351" s="27">
+        <v>0</v>
+      </c>
+      <c r="L351" s="27">
+        <v>0</v>
+      </c>
+      <c r="M351" s="27">
+        <v>0</v>
+      </c>
+      <c r="N351" s="27">
+        <v>0</v>
+      </c>
+      <c r="O351" s="27">
+        <v>0</v>
+      </c>
+      <c r="P351" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q351" s="27">
+        <v>0</v>
+      </c>
+      <c r="R351" s="27">
+        <v>0</v>
+      </c>
       <c r="S351" s="27">
         <v>0</v>
       </c>
@@ -51510,20 +51874,48 @@
       <c r="D352" s="3">
         <v>0</v>
       </c>
-      <c r="E352" s="27"/>
-      <c r="F352" s="27"/>
-      <c r="G352" s="27"/>
-      <c r="H352" s="27"/>
-      <c r="I352" s="27"/>
-      <c r="J352" s="27"/>
-      <c r="K352" s="27"/>
-      <c r="L352" s="27"/>
-      <c r="M352" s="27"/>
-      <c r="N352" s="27"/>
-      <c r="O352" s="27"/>
-      <c r="P352" s="27"/>
-      <c r="Q352" s="27"/>
-      <c r="R352" s="27"/>
+      <c r="E352" s="27">
+        <v>0</v>
+      </c>
+      <c r="F352" s="27">
+        <v>0</v>
+      </c>
+      <c r="G352" s="27">
+        <v>0</v>
+      </c>
+      <c r="H352" s="27">
+        <v>0</v>
+      </c>
+      <c r="I352" s="27">
+        <v>0</v>
+      </c>
+      <c r="J352" s="27">
+        <v>0</v>
+      </c>
+      <c r="K352" s="27">
+        <v>0</v>
+      </c>
+      <c r="L352" s="27">
+        <v>0</v>
+      </c>
+      <c r="M352" s="27">
+        <v>0</v>
+      </c>
+      <c r="N352" s="27">
+        <v>0</v>
+      </c>
+      <c r="O352" s="27">
+        <v>0</v>
+      </c>
+      <c r="P352" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q352" s="27">
+        <v>0</v>
+      </c>
+      <c r="R352" s="27">
+        <v>0</v>
+      </c>
       <c r="S352" s="27">
         <v>0</v>
       </c>
@@ -51612,20 +52004,48 @@
       <c r="D353" s="3">
         <v>0</v>
       </c>
-      <c r="E353" s="27"/>
-      <c r="F353" s="27"/>
-      <c r="G353" s="27"/>
-      <c r="H353" s="27"/>
-      <c r="I353" s="27"/>
-      <c r="J353" s="27"/>
-      <c r="K353" s="27"/>
-      <c r="L353" s="27"/>
-      <c r="M353" s="27"/>
-      <c r="N353" s="27"/>
-      <c r="O353" s="27"/>
-      <c r="P353" s="27"/>
-      <c r="Q353" s="27"/>
-      <c r="R353" s="27"/>
+      <c r="E353" s="27">
+        <v>0</v>
+      </c>
+      <c r="F353" s="27">
+        <v>0</v>
+      </c>
+      <c r="G353" s="27">
+        <v>0</v>
+      </c>
+      <c r="H353" s="27">
+        <v>0</v>
+      </c>
+      <c r="I353" s="27">
+        <v>0</v>
+      </c>
+      <c r="J353" s="27">
+        <v>0</v>
+      </c>
+      <c r="K353" s="27">
+        <v>0</v>
+      </c>
+      <c r="L353" s="27">
+        <v>0</v>
+      </c>
+      <c r="M353" s="27">
+        <v>0</v>
+      </c>
+      <c r="N353" s="27">
+        <v>0</v>
+      </c>
+      <c r="O353" s="27">
+        <v>0</v>
+      </c>
+      <c r="P353" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q353" s="27">
+        <v>0</v>
+      </c>
+      <c r="R353" s="27">
+        <v>0</v>
+      </c>
       <c r="S353" s="27">
         <v>0</v>
       </c>
@@ -51714,20 +52134,48 @@
       <c r="D354" s="3">
         <v>0</v>
       </c>
-      <c r="E354" s="27"/>
-      <c r="F354" s="27"/>
-      <c r="G354" s="27"/>
-      <c r="H354" s="27"/>
-      <c r="I354" s="27"/>
-      <c r="J354" s="27"/>
-      <c r="K354" s="27"/>
-      <c r="L354" s="27"/>
-      <c r="M354" s="27"/>
-      <c r="N354" s="27"/>
-      <c r="O354" s="27"/>
-      <c r="P354" s="27"/>
-      <c r="Q354" s="27"/>
-      <c r="R354" s="27"/>
+      <c r="E354" s="27">
+        <v>0</v>
+      </c>
+      <c r="F354" s="27">
+        <v>0</v>
+      </c>
+      <c r="G354" s="27">
+        <v>0</v>
+      </c>
+      <c r="H354" s="27">
+        <v>0</v>
+      </c>
+      <c r="I354" s="27">
+        <v>0</v>
+      </c>
+      <c r="J354" s="27">
+        <v>0</v>
+      </c>
+      <c r="K354" s="27">
+        <v>0</v>
+      </c>
+      <c r="L354" s="27">
+        <v>0</v>
+      </c>
+      <c r="M354" s="27">
+        <v>0</v>
+      </c>
+      <c r="N354" s="27">
+        <v>0</v>
+      </c>
+      <c r="O354" s="27">
+        <v>0</v>
+      </c>
+      <c r="P354" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q354" s="27">
+        <v>0</v>
+      </c>
+      <c r="R354" s="27">
+        <v>0</v>
+      </c>
       <c r="S354" s="27">
         <v>0</v>
       </c>
@@ -51816,20 +52264,48 @@
       <c r="D355" s="3">
         <v>0</v>
       </c>
-      <c r="E355" s="27"/>
-      <c r="F355" s="27"/>
-      <c r="G355" s="27"/>
-      <c r="H355" s="27"/>
-      <c r="I355" s="27"/>
-      <c r="J355" s="27"/>
-      <c r="K355" s="27"/>
-      <c r="L355" s="27"/>
-      <c r="M355" s="27"/>
-      <c r="N355" s="27"/>
-      <c r="O355" s="27"/>
-      <c r="P355" s="27"/>
-      <c r="Q355" s="27"/>
-      <c r="R355" s="27"/>
+      <c r="E355" s="27">
+        <v>0</v>
+      </c>
+      <c r="F355" s="27">
+        <v>0</v>
+      </c>
+      <c r="G355" s="27">
+        <v>0</v>
+      </c>
+      <c r="H355" s="27">
+        <v>0</v>
+      </c>
+      <c r="I355" s="27">
+        <v>0</v>
+      </c>
+      <c r="J355" s="27">
+        <v>0</v>
+      </c>
+      <c r="K355" s="27">
+        <v>0</v>
+      </c>
+      <c r="L355" s="27">
+        <v>0</v>
+      </c>
+      <c r="M355" s="27">
+        <v>0</v>
+      </c>
+      <c r="N355" s="27">
+        <v>0</v>
+      </c>
+      <c r="O355" s="27">
+        <v>0</v>
+      </c>
+      <c r="P355" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q355" s="27">
+        <v>0</v>
+      </c>
+      <c r="R355" s="27">
+        <v>0</v>
+      </c>
       <c r="S355" s="27">
         <v>0</v>
       </c>
@@ -51917,20 +52393,48 @@
       <c r="D356" s="26">
         <v>0.8</v>
       </c>
-      <c r="E356" s="17"/>
-      <c r="F356" s="17"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="17"/>
-      <c r="I356" s="17"/>
-      <c r="J356" s="17"/>
-      <c r="K356" s="17"/>
-      <c r="L356" s="17"/>
-      <c r="M356" s="17"/>
-      <c r="N356" s="17"/>
-      <c r="O356" s="17"/>
-      <c r="P356" s="17"/>
-      <c r="Q356" s="17"/>
-      <c r="R356" s="17"/>
+      <c r="E356" s="17">
+        <v>0</v>
+      </c>
+      <c r="F356" s="17">
+        <v>0</v>
+      </c>
+      <c r="G356" s="17">
+        <v>0</v>
+      </c>
+      <c r="H356" s="17">
+        <v>0</v>
+      </c>
+      <c r="I356" s="17">
+        <v>0</v>
+      </c>
+      <c r="J356" s="17">
+        <v>0</v>
+      </c>
+      <c r="K356" s="17">
+        <v>0</v>
+      </c>
+      <c r="L356" s="17">
+        <v>0</v>
+      </c>
+      <c r="M356" s="17">
+        <v>0</v>
+      </c>
+      <c r="N356" s="17">
+        <v>0</v>
+      </c>
+      <c r="O356" s="17">
+        <v>0</v>
+      </c>
+      <c r="P356" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q356" s="17">
+        <v>0</v>
+      </c>
+      <c r="R356" s="17">
+        <v>0</v>
+      </c>
       <c r="S356" s="17">
         <v>0</v>
       </c>
@@ -52348,20 +52852,48 @@
       <c r="D357" s="3">
         <v>0.8</v>
       </c>
-      <c r="E357" s="27"/>
-      <c r="F357" s="27"/>
-      <c r="G357" s="27"/>
-      <c r="H357" s="27"/>
-      <c r="I357" s="27"/>
-      <c r="J357" s="27"/>
-      <c r="K357" s="27"/>
-      <c r="L357" s="27"/>
-      <c r="M357" s="27"/>
-      <c r="N357" s="27"/>
-      <c r="O357" s="27"/>
-      <c r="P357" s="27"/>
-      <c r="Q357" s="27"/>
-      <c r="R357" s="27"/>
+      <c r="E357" s="27">
+        <v>0</v>
+      </c>
+      <c r="F357" s="27">
+        <v>0</v>
+      </c>
+      <c r="G357" s="27">
+        <v>0</v>
+      </c>
+      <c r="H357" s="27">
+        <v>0</v>
+      </c>
+      <c r="I357" s="27">
+        <v>0</v>
+      </c>
+      <c r="J357" s="27">
+        <v>0</v>
+      </c>
+      <c r="K357" s="27">
+        <v>0</v>
+      </c>
+      <c r="L357" s="27">
+        <v>0</v>
+      </c>
+      <c r="M357" s="27">
+        <v>0</v>
+      </c>
+      <c r="N357" s="27">
+        <v>0</v>
+      </c>
+      <c r="O357" s="27">
+        <v>0</v>
+      </c>
+      <c r="P357" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q357" s="27">
+        <v>0</v>
+      </c>
+      <c r="R357" s="27">
+        <v>0</v>
+      </c>
       <c r="S357" s="27">
         <v>0</v>
       </c>
@@ -52449,20 +52981,48 @@
       <c r="D358" s="3">
         <v>0.8</v>
       </c>
-      <c r="E358" s="27"/>
-      <c r="F358" s="27"/>
-      <c r="G358" s="27"/>
-      <c r="H358" s="27"/>
-      <c r="I358" s="27"/>
-      <c r="J358" s="27"/>
-      <c r="K358" s="27"/>
-      <c r="L358" s="27"/>
-      <c r="M358" s="27"/>
-      <c r="N358" s="27"/>
-      <c r="O358" s="27"/>
-      <c r="P358" s="27"/>
-      <c r="Q358" s="27"/>
-      <c r="R358" s="27"/>
+      <c r="E358" s="27">
+        <v>0</v>
+      </c>
+      <c r="F358" s="27">
+        <v>0</v>
+      </c>
+      <c r="G358" s="27">
+        <v>0</v>
+      </c>
+      <c r="H358" s="27">
+        <v>0</v>
+      </c>
+      <c r="I358" s="27">
+        <v>0</v>
+      </c>
+      <c r="J358" s="27">
+        <v>0</v>
+      </c>
+      <c r="K358" s="27">
+        <v>0</v>
+      </c>
+      <c r="L358" s="27">
+        <v>0</v>
+      </c>
+      <c r="M358" s="27">
+        <v>0</v>
+      </c>
+      <c r="N358" s="27">
+        <v>0</v>
+      </c>
+      <c r="O358" s="27">
+        <v>0</v>
+      </c>
+      <c r="P358" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q358" s="27">
+        <v>0</v>
+      </c>
+      <c r="R358" s="27">
+        <v>0</v>
+      </c>
       <c r="S358" s="27">
         <v>0</v>
       </c>
@@ -52697,20 +53257,48 @@
       <c r="D362" s="3">
         <v>0.8</v>
       </c>
-      <c r="E362" s="27"/>
-      <c r="F362" s="27"/>
-      <c r="G362" s="27"/>
-      <c r="H362" s="27"/>
-      <c r="I362" s="27"/>
-      <c r="J362" s="27"/>
-      <c r="K362" s="27"/>
-      <c r="L362" s="27"/>
-      <c r="M362" s="27"/>
-      <c r="N362" s="27"/>
-      <c r="O362" s="27"/>
-      <c r="P362" s="27"/>
-      <c r="Q362" s="27"/>
-      <c r="R362" s="27"/>
+      <c r="E362" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="F362" s="27">
+        <v>0</v>
+      </c>
+      <c r="G362" s="27">
+        <v>0</v>
+      </c>
+      <c r="H362" s="27">
+        <v>0</v>
+      </c>
+      <c r="I362" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="J362" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="K362" s="27">
+        <v>0</v>
+      </c>
+      <c r="L362" s="27">
+        <v>0</v>
+      </c>
+      <c r="M362" s="27">
+        <v>0</v>
+      </c>
+      <c r="N362" s="27">
+        <v>0</v>
+      </c>
+      <c r="O362" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="P362" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="Q362" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="R362" s="27">
+        <v>0.8</v>
+      </c>
       <c r="S362" s="27">
         <v>0.8</v>
       </c>
@@ -52718,7 +53306,7 @@
         <v>0.8</v>
       </c>
       <c r="U362" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V362" s="27">
         <v>0.8</v>
@@ -52730,10 +53318,10 @@
         <v>0</v>
       </c>
       <c r="Y362" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z362" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA362" s="27">
         <v>0</v>
@@ -52798,20 +53386,48 @@
       <c r="D363" s="3">
         <v>0.8</v>
       </c>
-      <c r="E363" s="27"/>
-      <c r="F363" s="27"/>
-      <c r="G363" s="27"/>
-      <c r="H363" s="27"/>
-      <c r="I363" s="27"/>
-      <c r="J363" s="27"/>
-      <c r="K363" s="27"/>
-      <c r="L363" s="27"/>
-      <c r="M363" s="27"/>
-      <c r="N363" s="27"/>
-      <c r="O363" s="27"/>
-      <c r="P363" s="27"/>
-      <c r="Q363" s="27"/>
-      <c r="R363" s="27"/>
+      <c r="E363" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="F363" s="27">
+        <v>0</v>
+      </c>
+      <c r="G363" s="27">
+        <v>0</v>
+      </c>
+      <c r="H363" s="27">
+        <v>0</v>
+      </c>
+      <c r="I363" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="J363" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="K363" s="27">
+        <v>0</v>
+      </c>
+      <c r="L363" s="27">
+        <v>0</v>
+      </c>
+      <c r="M363" s="27">
+        <v>0</v>
+      </c>
+      <c r="N363" s="27">
+        <v>0</v>
+      </c>
+      <c r="O363" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="P363" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="Q363" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="R363" s="27">
+        <v>0.8</v>
+      </c>
       <c r="S363" s="27">
         <v>0.8</v>
       </c>
@@ -52819,7 +53435,7 @@
         <v>0.8</v>
       </c>
       <c r="U363" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="V363" s="27">
         <v>0.8</v>
@@ -52831,10 +53447,10 @@
         <v>0</v>
       </c>
       <c r="Y363" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z363" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA363" s="27">
         <v>0</v>
@@ -52896,69 +53512,97 @@
       <c r="C364" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D364" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E364" s="27"/>
-      <c r="F364" s="27"/>
-      <c r="G364" s="27"/>
-      <c r="H364" s="27"/>
-      <c r="I364" s="27"/>
-      <c r="J364" s="27"/>
-      <c r="K364" s="27"/>
-      <c r="L364" s="27"/>
-      <c r="M364" s="27"/>
-      <c r="N364" s="27"/>
-      <c r="O364" s="27"/>
-      <c r="P364" s="27"/>
-      <c r="Q364" s="27"/>
-      <c r="R364" s="27"/>
-      <c r="S364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="T364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="U364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="V364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="W364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="X364" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y364" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z364" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA364" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AC364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AD364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AE364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AF364" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="AG364" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH364" s="27">
+      <c r="D364" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F364" s="5">
+        <v>0</v>
+      </c>
+      <c r="G364" s="5">
+        <v>0</v>
+      </c>
+      <c r="H364" s="5">
+        <v>0</v>
+      </c>
+      <c r="I364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K364" s="5">
+        <v>0</v>
+      </c>
+      <c r="L364" s="5">
+        <v>0</v>
+      </c>
+      <c r="M364" s="5">
+        <v>0</v>
+      </c>
+      <c r="N364" s="5">
+        <v>0</v>
+      </c>
+      <c r="O364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Q364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="R364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="T364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U364" s="5">
+        <v>0</v>
+      </c>
+      <c r="V364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X364" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Z364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AA364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AC364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AD364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AE364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF364" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AG364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH364" s="5">
         <v>0</v>
       </c>
       <c r="AI364" s="4">
@@ -64706,7 +65350,7 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
       </c>
-      <c r="D445" s="26">
+      <c r="D445" s="3">
         <v>0.8</v>
       </c>
       <c r="E445" s="32">
@@ -64751,22 +65395,54 @@
       <c r="R445" s="32">
         <v>0</v>
       </c>
-      <c r="S445" s="32"/>
-      <c r="T445" s="32"/>
-      <c r="U445" s="32"/>
-      <c r="V445" s="32"/>
-      <c r="W445" s="32"/>
-      <c r="X445" s="32"/>
-      <c r="Y445" s="32"/>
-      <c r="Z445" s="32"/>
-      <c r="AA445" s="32"/>
-      <c r="AB445" s="32"/>
-      <c r="AC445" s="32"/>
-      <c r="AD445" s="32"/>
-      <c r="AE445" s="32"/>
-      <c r="AF445" s="32"/>
-      <c r="AG445" s="32"/>
-      <c r="AH445" s="32"/>
+      <c r="S445" s="32">
+        <v>0</v>
+      </c>
+      <c r="T445" s="32">
+        <v>0</v>
+      </c>
+      <c r="U445" s="32">
+        <v>0</v>
+      </c>
+      <c r="V445" s="32">
+        <v>0</v>
+      </c>
+      <c r="W445" s="32">
+        <v>0</v>
+      </c>
+      <c r="X445" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y445" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG445" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH445" s="32">
+        <v>0</v>
+      </c>
       <c r="AI445" s="26">
         <v>0</v>
       </c>
@@ -65179,22 +65855,54 @@
       <c r="R446" s="27">
         <v>0</v>
       </c>
-      <c r="S446" s="27"/>
-      <c r="T446" s="27"/>
-      <c r="U446" s="27"/>
-      <c r="V446" s="27"/>
-      <c r="W446" s="27"/>
-      <c r="X446" s="27"/>
-      <c r="Y446" s="27"/>
-      <c r="Z446" s="27"/>
-      <c r="AA446" s="27"/>
-      <c r="AB446" s="27"/>
-      <c r="AC446" s="27"/>
-      <c r="AD446" s="27"/>
-      <c r="AE446" s="27"/>
-      <c r="AF446" s="27"/>
-      <c r="AG446" s="27"/>
-      <c r="AH446" s="27"/>
+      <c r="S446" s="27">
+        <v>0</v>
+      </c>
+      <c r="T446" s="27">
+        <v>0</v>
+      </c>
+      <c r="U446" s="27">
+        <v>0</v>
+      </c>
+      <c r="V446" s="27">
+        <v>0</v>
+      </c>
+      <c r="W446" s="27">
+        <v>0</v>
+      </c>
+      <c r="X446" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y446" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG446" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH446" s="27">
+        <v>0</v>
+      </c>
       <c r="AI446" s="3">
         <v>0</v>
       </c>
@@ -65277,22 +65985,54 @@
       <c r="R447" s="27">
         <v>0</v>
       </c>
-      <c r="S447" s="27"/>
-      <c r="T447" s="27"/>
-      <c r="U447" s="27"/>
-      <c r="V447" s="27"/>
-      <c r="W447" s="27"/>
-      <c r="X447" s="27"/>
-      <c r="Y447" s="27"/>
-      <c r="Z447" s="27"/>
-      <c r="AA447" s="27"/>
-      <c r="AB447" s="27"/>
-      <c r="AC447" s="27"/>
-      <c r="AD447" s="27"/>
-      <c r="AE447" s="27"/>
-      <c r="AF447" s="27"/>
-      <c r="AG447" s="27"/>
-      <c r="AH447" s="27"/>
+      <c r="S447" s="27">
+        <v>0</v>
+      </c>
+      <c r="T447" s="27">
+        <v>0</v>
+      </c>
+      <c r="U447" s="27">
+        <v>0</v>
+      </c>
+      <c r="V447" s="27">
+        <v>0</v>
+      </c>
+      <c r="W447" s="27">
+        <v>0</v>
+      </c>
+      <c r="X447" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y447" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG447" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH447" s="27">
+        <v>0</v>
+      </c>
       <c r="AI447" s="3">
         <v>0</v>
       </c>
@@ -65340,7 +66080,7 @@
         <v>0</v>
       </c>
       <c r="G448" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H448" s="27">
         <v>0</v>
@@ -65375,22 +66115,54 @@
       <c r="R448" s="27">
         <v>0</v>
       </c>
-      <c r="S448" s="27"/>
-      <c r="T448" s="27"/>
-      <c r="U448" s="27"/>
-      <c r="V448" s="27"/>
-      <c r="W448" s="27"/>
-      <c r="X448" s="27"/>
-      <c r="Y448" s="27"/>
-      <c r="Z448" s="27"/>
-      <c r="AA448" s="27"/>
-      <c r="AB448" s="27"/>
-      <c r="AC448" s="27"/>
-      <c r="AD448" s="27"/>
-      <c r="AE448" s="27"/>
-      <c r="AF448" s="27"/>
-      <c r="AG448" s="27"/>
-      <c r="AH448" s="27"/>
+      <c r="S448" s="27">
+        <v>0</v>
+      </c>
+      <c r="T448" s="27">
+        <v>0</v>
+      </c>
+      <c r="U448" s="27">
+        <v>0</v>
+      </c>
+      <c r="V448" s="27">
+        <v>0</v>
+      </c>
+      <c r="W448" s="27">
+        <v>0</v>
+      </c>
+      <c r="X448" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y448" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG448" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH448" s="27">
+        <v>0</v>
+      </c>
       <c r="AI448" s="3">
         <v>0</v>
       </c>
@@ -65473,22 +66245,54 @@
       <c r="R449" s="27">
         <v>0</v>
       </c>
-      <c r="S449" s="27"/>
-      <c r="T449" s="27"/>
-      <c r="U449" s="27"/>
-      <c r="V449" s="27"/>
-      <c r="W449" s="27"/>
-      <c r="X449" s="27"/>
-      <c r="Y449" s="27"/>
-      <c r="Z449" s="27"/>
-      <c r="AA449" s="27"/>
-      <c r="AB449" s="27"/>
-      <c r="AC449" s="27"/>
-      <c r="AD449" s="27"/>
-      <c r="AE449" s="27"/>
-      <c r="AF449" s="27"/>
-      <c r="AG449" s="27"/>
-      <c r="AH449" s="27"/>
+      <c r="S449" s="27">
+        <v>0</v>
+      </c>
+      <c r="T449" s="27">
+        <v>0</v>
+      </c>
+      <c r="U449" s="27">
+        <v>0</v>
+      </c>
+      <c r="V449" s="27">
+        <v>0</v>
+      </c>
+      <c r="W449" s="27">
+        <v>0</v>
+      </c>
+      <c r="X449" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y449" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG449" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH449" s="27">
+        <v>0</v>
+      </c>
       <c r="AI449" s="3">
         <v>0</v>
       </c>
@@ -65571,22 +66375,54 @@
       <c r="R450" s="27">
         <v>0</v>
       </c>
-      <c r="S450" s="27"/>
-      <c r="T450" s="27"/>
-      <c r="U450" s="27"/>
-      <c r="V450" s="27"/>
-      <c r="W450" s="27"/>
-      <c r="X450" s="27"/>
-      <c r="Y450" s="27"/>
-      <c r="Z450" s="27"/>
-      <c r="AA450" s="27"/>
-      <c r="AB450" s="27"/>
-      <c r="AC450" s="27"/>
-      <c r="AD450" s="27"/>
-      <c r="AE450" s="27"/>
-      <c r="AF450" s="27"/>
-      <c r="AG450" s="27"/>
-      <c r="AH450" s="27"/>
+      <c r="S450" s="27">
+        <v>0</v>
+      </c>
+      <c r="T450" s="27">
+        <v>0</v>
+      </c>
+      <c r="U450" s="27">
+        <v>0</v>
+      </c>
+      <c r="V450" s="27">
+        <v>0</v>
+      </c>
+      <c r="W450" s="27">
+        <v>0</v>
+      </c>
+      <c r="X450" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y450" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG450" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH450" s="27">
+        <v>0</v>
+      </c>
       <c r="AI450" s="3">
         <v>0</v>
       </c>
@@ -65669,22 +66505,54 @@
       <c r="R451" s="27">
         <v>0</v>
       </c>
-      <c r="S451" s="27"/>
-      <c r="T451" s="27"/>
-      <c r="U451" s="27"/>
-      <c r="V451" s="27"/>
-      <c r="W451" s="27"/>
-      <c r="X451" s="27"/>
-      <c r="Y451" s="27"/>
-      <c r="Z451" s="27"/>
-      <c r="AA451" s="27"/>
-      <c r="AB451" s="27"/>
-      <c r="AC451" s="27"/>
-      <c r="AD451" s="27"/>
-      <c r="AE451" s="27"/>
-      <c r="AF451" s="27"/>
-      <c r="AG451" s="27"/>
-      <c r="AH451" s="27"/>
+      <c r="S451" s="27">
+        <v>0</v>
+      </c>
+      <c r="T451" s="27">
+        <v>0</v>
+      </c>
+      <c r="U451" s="27">
+        <v>0</v>
+      </c>
+      <c r="V451" s="27">
+        <v>0</v>
+      </c>
+      <c r="W451" s="27">
+        <v>0</v>
+      </c>
+      <c r="X451" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y451" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG451" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH451" s="27">
+        <v>0</v>
+      </c>
       <c r="AI451" s="3">
         <v>0</v>
       </c>
@@ -65767,22 +66635,54 @@
       <c r="R452" s="27">
         <v>0</v>
       </c>
-      <c r="S452" s="27"/>
-      <c r="T452" s="27"/>
-      <c r="U452" s="27"/>
-      <c r="V452" s="27"/>
-      <c r="W452" s="27"/>
-      <c r="X452" s="27"/>
-      <c r="Y452" s="27"/>
-      <c r="Z452" s="27"/>
-      <c r="AA452" s="27"/>
-      <c r="AB452" s="27"/>
-      <c r="AC452" s="27"/>
-      <c r="AD452" s="27"/>
-      <c r="AE452" s="27"/>
-      <c r="AF452" s="27"/>
-      <c r="AG452" s="27"/>
-      <c r="AH452" s="27"/>
+      <c r="S452" s="27">
+        <v>0</v>
+      </c>
+      <c r="T452" s="27">
+        <v>0</v>
+      </c>
+      <c r="U452" s="27">
+        <v>0</v>
+      </c>
+      <c r="V452" s="27">
+        <v>0</v>
+      </c>
+      <c r="W452" s="27">
+        <v>0</v>
+      </c>
+      <c r="X452" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y452" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG452" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH452" s="27">
+        <v>0</v>
+      </c>
       <c r="AI452" s="3">
         <v>0</v>
       </c>
@@ -65865,22 +66765,54 @@
       <c r="R453" s="27">
         <v>0</v>
       </c>
-      <c r="S453" s="27"/>
-      <c r="T453" s="27"/>
-      <c r="U453" s="27"/>
-      <c r="V453" s="27"/>
-      <c r="W453" s="27"/>
-      <c r="X453" s="27"/>
-      <c r="Y453" s="27"/>
-      <c r="Z453" s="27"/>
-      <c r="AA453" s="27"/>
-      <c r="AB453" s="27"/>
-      <c r="AC453" s="27"/>
-      <c r="AD453" s="27"/>
-      <c r="AE453" s="27"/>
-      <c r="AF453" s="27"/>
-      <c r="AG453" s="27"/>
-      <c r="AH453" s="27"/>
+      <c r="S453" s="27">
+        <v>0</v>
+      </c>
+      <c r="T453" s="27">
+        <v>0</v>
+      </c>
+      <c r="U453" s="27">
+        <v>0</v>
+      </c>
+      <c r="V453" s="27">
+        <v>0</v>
+      </c>
+      <c r="W453" s="27">
+        <v>0</v>
+      </c>
+      <c r="X453" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y453" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG453" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH453" s="27">
+        <v>0</v>
+      </c>
       <c r="AI453" s="3">
         <v>0</v>
       </c>
@@ -65963,22 +66895,54 @@
       <c r="R454" s="27">
         <v>0</v>
       </c>
-      <c r="S454" s="27"/>
-      <c r="T454" s="27"/>
-      <c r="U454" s="27"/>
-      <c r="V454" s="27"/>
-      <c r="W454" s="27"/>
-      <c r="X454" s="27"/>
-      <c r="Y454" s="27"/>
-      <c r="Z454" s="27"/>
-      <c r="AA454" s="27"/>
-      <c r="AB454" s="27"/>
-      <c r="AC454" s="27"/>
-      <c r="AD454" s="27"/>
-      <c r="AE454" s="27"/>
-      <c r="AF454" s="27"/>
-      <c r="AG454" s="27"/>
-      <c r="AH454" s="27"/>
+      <c r="S454" s="27">
+        <v>0</v>
+      </c>
+      <c r="T454" s="27">
+        <v>0</v>
+      </c>
+      <c r="U454" s="27">
+        <v>0</v>
+      </c>
+      <c r="V454" s="27">
+        <v>0</v>
+      </c>
+      <c r="W454" s="27">
+        <v>0</v>
+      </c>
+      <c r="X454" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y454" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG454" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH454" s="27">
+        <v>0</v>
+      </c>
       <c r="AI454" s="3">
         <v>0</v>
       </c>
@@ -66061,22 +67025,54 @@
       <c r="R455" s="27">
         <v>0</v>
       </c>
-      <c r="S455" s="27"/>
-      <c r="T455" s="27"/>
-      <c r="U455" s="27"/>
-      <c r="V455" s="27"/>
-      <c r="W455" s="27"/>
-      <c r="X455" s="27"/>
-      <c r="Y455" s="27"/>
-      <c r="Z455" s="27"/>
-      <c r="AA455" s="27"/>
-      <c r="AB455" s="27"/>
-      <c r="AC455" s="27"/>
-      <c r="AD455" s="27"/>
-      <c r="AE455" s="27"/>
-      <c r="AF455" s="27"/>
-      <c r="AG455" s="27"/>
-      <c r="AH455" s="27"/>
+      <c r="S455" s="27">
+        <v>0</v>
+      </c>
+      <c r="T455" s="27">
+        <v>0</v>
+      </c>
+      <c r="U455" s="27">
+        <v>0</v>
+      </c>
+      <c r="V455" s="27">
+        <v>0</v>
+      </c>
+      <c r="W455" s="27">
+        <v>0</v>
+      </c>
+      <c r="X455" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y455" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG455" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH455" s="27">
+        <v>0</v>
+      </c>
       <c r="AI455" s="3">
         <v>0</v>
       </c>
@@ -66159,22 +67155,54 @@
       <c r="R456" s="27">
         <v>0</v>
       </c>
-      <c r="S456" s="27"/>
-      <c r="T456" s="27"/>
-      <c r="U456" s="27"/>
-      <c r="V456" s="27"/>
-      <c r="W456" s="27"/>
-      <c r="X456" s="27"/>
-      <c r="Y456" s="27"/>
-      <c r="Z456" s="27"/>
-      <c r="AA456" s="27"/>
-      <c r="AB456" s="27"/>
-      <c r="AC456" s="27"/>
-      <c r="AD456" s="27"/>
-      <c r="AE456" s="27"/>
-      <c r="AF456" s="27"/>
-      <c r="AG456" s="27"/>
-      <c r="AH456" s="27"/>
+      <c r="S456" s="27">
+        <v>0</v>
+      </c>
+      <c r="T456" s="27">
+        <v>0</v>
+      </c>
+      <c r="U456" s="27">
+        <v>0</v>
+      </c>
+      <c r="V456" s="27">
+        <v>0</v>
+      </c>
+      <c r="W456" s="27">
+        <v>0</v>
+      </c>
+      <c r="X456" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y456" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG456" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH456" s="27">
+        <v>0</v>
+      </c>
       <c r="AI456" s="3">
         <v>0</v>
       </c>
@@ -66249,7 +67277,7 @@
         <v>0</v>
       </c>
       <c r="P457" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q457" s="27">
         <v>0</v>
@@ -66257,22 +67285,54 @@
       <c r="R457" s="27">
         <v>0</v>
       </c>
-      <c r="S457" s="27"/>
-      <c r="T457" s="27"/>
-      <c r="U457" s="27"/>
-      <c r="V457" s="27"/>
-      <c r="W457" s="27"/>
-      <c r="X457" s="27"/>
-      <c r="Y457" s="27"/>
-      <c r="Z457" s="27"/>
-      <c r="AA457" s="27"/>
-      <c r="AB457" s="27"/>
-      <c r="AC457" s="27"/>
-      <c r="AD457" s="27"/>
-      <c r="AE457" s="27"/>
-      <c r="AF457" s="27"/>
-      <c r="AG457" s="27"/>
-      <c r="AH457" s="27"/>
+      <c r="S457" s="27">
+        <v>0</v>
+      </c>
+      <c r="T457" s="27">
+        <v>0</v>
+      </c>
+      <c r="U457" s="27">
+        <v>0</v>
+      </c>
+      <c r="V457" s="27">
+        <v>0</v>
+      </c>
+      <c r="W457" s="27">
+        <v>0</v>
+      </c>
+      <c r="X457" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y457" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG457" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH457" s="27">
+        <v>0</v>
+      </c>
       <c r="AI457" s="3">
         <v>0</v>
       </c>
@@ -66355,22 +67415,54 @@
       <c r="R458" s="27">
         <v>0</v>
       </c>
-      <c r="S458" s="27"/>
-      <c r="T458" s="27"/>
-      <c r="U458" s="27"/>
-      <c r="V458" s="27"/>
-      <c r="W458" s="27"/>
-      <c r="X458" s="27"/>
-      <c r="Y458" s="27"/>
-      <c r="Z458" s="27"/>
-      <c r="AA458" s="27"/>
-      <c r="AB458" s="27"/>
-      <c r="AC458" s="27"/>
-      <c r="AD458" s="27"/>
-      <c r="AE458" s="27"/>
-      <c r="AF458" s="27"/>
-      <c r="AG458" s="27"/>
-      <c r="AH458" s="27"/>
+      <c r="S458" s="27">
+        <v>0</v>
+      </c>
+      <c r="T458" s="27">
+        <v>0</v>
+      </c>
+      <c r="U458" s="27">
+        <v>0</v>
+      </c>
+      <c r="V458" s="27">
+        <v>0</v>
+      </c>
+      <c r="W458" s="27">
+        <v>0</v>
+      </c>
+      <c r="X458" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y458" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG458" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH458" s="27">
+        <v>0</v>
+      </c>
       <c r="AI458" s="3">
         <v>0</v>
       </c>
@@ -66453,22 +67545,54 @@
       <c r="R459" s="27">
         <v>0</v>
       </c>
-      <c r="S459" s="27"/>
-      <c r="T459" s="27"/>
-      <c r="U459" s="27"/>
-      <c r="V459" s="27"/>
-      <c r="W459" s="27"/>
-      <c r="X459" s="27"/>
-      <c r="Y459" s="27"/>
-      <c r="Z459" s="27"/>
-      <c r="AA459" s="27"/>
-      <c r="AB459" s="27"/>
-      <c r="AC459" s="27"/>
-      <c r="AD459" s="27"/>
-      <c r="AE459" s="27"/>
-      <c r="AF459" s="27"/>
-      <c r="AG459" s="27"/>
-      <c r="AH459" s="27"/>
+      <c r="S459" s="27">
+        <v>0</v>
+      </c>
+      <c r="T459" s="27">
+        <v>0</v>
+      </c>
+      <c r="U459" s="27">
+        <v>0</v>
+      </c>
+      <c r="V459" s="27">
+        <v>0</v>
+      </c>
+      <c r="W459" s="27">
+        <v>0</v>
+      </c>
+      <c r="X459" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y459" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG459" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH459" s="27">
+        <v>0</v>
+      </c>
       <c r="AI459" s="3">
         <v>0</v>
       </c>
@@ -67350,22 +68474,54 @@
       <c r="R476" s="17">
         <v>0</v>
       </c>
-      <c r="S476" s="17"/>
-      <c r="T476" s="17"/>
-      <c r="U476" s="17"/>
-      <c r="V476" s="17"/>
-      <c r="W476" s="17"/>
-      <c r="X476" s="17"/>
-      <c r="Y476" s="17"/>
-      <c r="Z476" s="17"/>
-      <c r="AA476" s="17"/>
-      <c r="AB476" s="17"/>
-      <c r="AC476" s="17"/>
-      <c r="AD476" s="17"/>
-      <c r="AE476" s="17"/>
-      <c r="AF476" s="17"/>
-      <c r="AG476" s="17"/>
-      <c r="AH476" s="17"/>
+      <c r="S476" s="17">
+        <v>0</v>
+      </c>
+      <c r="T476" s="17">
+        <v>0</v>
+      </c>
+      <c r="U476" s="17">
+        <v>0</v>
+      </c>
+      <c r="V476" s="17">
+        <v>0</v>
+      </c>
+      <c r="W476" s="17">
+        <v>0</v>
+      </c>
+      <c r="X476" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y476" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG476" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH476" s="17">
+        <v>0</v>
+      </c>
       <c r="AI476" s="26">
         <v>0.8</v>
       </c>
@@ -67777,22 +68933,54 @@
       <c r="R477" s="27">
         <v>0</v>
       </c>
-      <c r="S477" s="27"/>
-      <c r="T477" s="27"/>
-      <c r="U477" s="27"/>
-      <c r="V477" s="27"/>
-      <c r="W477" s="27"/>
-      <c r="X477" s="27"/>
-      <c r="Y477" s="27"/>
-      <c r="Z477" s="27"/>
-      <c r="AA477" s="27"/>
-      <c r="AB477" s="27"/>
-      <c r="AC477" s="27"/>
-      <c r="AD477" s="27"/>
-      <c r="AE477" s="27"/>
-      <c r="AF477" s="27"/>
-      <c r="AG477" s="27"/>
-      <c r="AH477" s="27"/>
+      <c r="S477" s="27">
+        <v>0</v>
+      </c>
+      <c r="T477" s="27">
+        <v>0</v>
+      </c>
+      <c r="U477" s="27">
+        <v>0</v>
+      </c>
+      <c r="V477" s="27">
+        <v>0</v>
+      </c>
+      <c r="W477" s="27">
+        <v>0</v>
+      </c>
+      <c r="X477" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y477" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG477" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH477" s="27">
+        <v>0</v>
+      </c>
       <c r="AI477" s="1">
         <v>0</v>
       </c>
@@ -67874,22 +69062,54 @@
       <c r="R478" s="27">
         <v>0</v>
       </c>
-      <c r="S478" s="27"/>
-      <c r="T478" s="27"/>
-      <c r="U478" s="27"/>
-      <c r="V478" s="27"/>
-      <c r="W478" s="27"/>
-      <c r="X478" s="27"/>
-      <c r="Y478" s="27"/>
-      <c r="Z478" s="27"/>
-      <c r="AA478" s="27"/>
-      <c r="AB478" s="27"/>
-      <c r="AC478" s="27"/>
-      <c r="AD478" s="27"/>
-      <c r="AE478" s="27"/>
-      <c r="AF478" s="27"/>
-      <c r="AG478" s="27"/>
-      <c r="AH478" s="27"/>
+      <c r="S478" s="27">
+        <v>0</v>
+      </c>
+      <c r="T478" s="27">
+        <v>0</v>
+      </c>
+      <c r="U478" s="27">
+        <v>0</v>
+      </c>
+      <c r="V478" s="27">
+        <v>0</v>
+      </c>
+      <c r="W478" s="27">
+        <v>0</v>
+      </c>
+      <c r="X478" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y478" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG478" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH478" s="27">
+        <v>0</v>
+      </c>
       <c r="AI478" s="1">
         <v>0</v>
       </c>
@@ -67936,7 +69156,7 @@
         <v>0</v>
       </c>
       <c r="G479" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H479" s="27">
         <v>0</v>
@@ -67963,7 +69183,7 @@
         <v>0</v>
       </c>
       <c r="P479" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q479" s="27">
         <v>0</v>
@@ -67971,22 +69191,54 @@
       <c r="R479" s="27">
         <v>0</v>
       </c>
-      <c r="S479" s="27"/>
-      <c r="T479" s="27"/>
-      <c r="U479" s="27"/>
-      <c r="V479" s="27"/>
-      <c r="W479" s="27"/>
-      <c r="X479" s="27"/>
-      <c r="Y479" s="27"/>
-      <c r="Z479" s="27"/>
-      <c r="AA479" s="27"/>
-      <c r="AB479" s="27"/>
-      <c r="AC479" s="27"/>
-      <c r="AD479" s="27"/>
-      <c r="AE479" s="27"/>
-      <c r="AF479" s="27"/>
-      <c r="AG479" s="27"/>
-      <c r="AH479" s="27"/>
+      <c r="S479" s="27">
+        <v>0</v>
+      </c>
+      <c r="T479" s="27">
+        <v>0</v>
+      </c>
+      <c r="U479" s="27">
+        <v>0</v>
+      </c>
+      <c r="V479" s="27">
+        <v>0</v>
+      </c>
+      <c r="W479" s="27">
+        <v>0</v>
+      </c>
+      <c r="X479" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y479" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG479" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH479" s="27">
+        <v>0</v>
+      </c>
       <c r="AI479" s="1">
         <v>0</v>
       </c>
@@ -68033,7 +69285,7 @@
         <v>0</v>
       </c>
       <c r="G480" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H480" s="27">
         <v>0</v>
@@ -68060,7 +69312,7 @@
         <v>0</v>
       </c>
       <c r="P480" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q480" s="27">
         <v>0</v>
@@ -68068,22 +69320,54 @@
       <c r="R480" s="27">
         <v>0</v>
       </c>
-      <c r="S480" s="27"/>
-      <c r="T480" s="27"/>
-      <c r="U480" s="27"/>
-      <c r="V480" s="27"/>
-      <c r="W480" s="27"/>
-      <c r="X480" s="27"/>
-      <c r="Y480" s="27"/>
-      <c r="Z480" s="27"/>
-      <c r="AA480" s="27"/>
-      <c r="AB480" s="27"/>
-      <c r="AC480" s="27"/>
-      <c r="AD480" s="27"/>
-      <c r="AE480" s="27"/>
-      <c r="AF480" s="27"/>
-      <c r="AG480" s="27"/>
-      <c r="AH480" s="27"/>
+      <c r="S480" s="27">
+        <v>0</v>
+      </c>
+      <c r="T480" s="27">
+        <v>0</v>
+      </c>
+      <c r="U480" s="27">
+        <v>0</v>
+      </c>
+      <c r="V480" s="27">
+        <v>0</v>
+      </c>
+      <c r="W480" s="27">
+        <v>0</v>
+      </c>
+      <c r="X480" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y480" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG480" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH480" s="27">
+        <v>0</v>
+      </c>
       <c r="AI480" s="3">
         <v>0</v>
       </c>
@@ -68130,7 +69414,7 @@
         <v>0</v>
       </c>
       <c r="G481" s="27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H481" s="27">
         <v>0</v>
@@ -68157,7 +69441,7 @@
         <v>0</v>
       </c>
       <c r="P481" s="27">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q481" s="27">
         <v>0</v>
@@ -68165,22 +69449,54 @@
       <c r="R481" s="27">
         <v>0</v>
       </c>
-      <c r="S481" s="27"/>
-      <c r="T481" s="27"/>
-      <c r="U481" s="27"/>
-      <c r="V481" s="27"/>
-      <c r="W481" s="27"/>
-      <c r="X481" s="27"/>
-      <c r="Y481" s="27"/>
-      <c r="Z481" s="27"/>
-      <c r="AA481" s="27"/>
-      <c r="AB481" s="27"/>
-      <c r="AC481" s="27"/>
-      <c r="AD481" s="27"/>
-      <c r="AE481" s="27"/>
-      <c r="AF481" s="27"/>
-      <c r="AG481" s="27"/>
-      <c r="AH481" s="27"/>
+      <c r="S481" s="27">
+        <v>0</v>
+      </c>
+      <c r="T481" s="27">
+        <v>0</v>
+      </c>
+      <c r="U481" s="27">
+        <v>0</v>
+      </c>
+      <c r="V481" s="27">
+        <v>0</v>
+      </c>
+      <c r="W481" s="27">
+        <v>0</v>
+      </c>
+      <c r="X481" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y481" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG481" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH481" s="27">
+        <v>0</v>
+      </c>
       <c r="AI481" s="3">
         <v>0</v>
       </c>
@@ -68315,37 +69631,37 @@
       <c r="C484" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D484" s="4"/>
-      <c r="E484" s="5"/>
-      <c r="F484" s="5"/>
-      <c r="G484" s="5"/>
-      <c r="H484" s="5"/>
-      <c r="I484" s="5"/>
-      <c r="J484" s="5"/>
-      <c r="K484" s="5"/>
-      <c r="L484" s="5"/>
-      <c r="M484" s="5"/>
-      <c r="N484" s="5"/>
-      <c r="O484" s="5"/>
-      <c r="P484" s="5"/>
-      <c r="Q484" s="5"/>
-      <c r="R484" s="5"/>
-      <c r="S484" s="5"/>
-      <c r="T484" s="5"/>
-      <c r="U484" s="5"/>
-      <c r="V484" s="5"/>
-      <c r="W484" s="5"/>
-      <c r="X484" s="5"/>
-      <c r="Y484" s="5"/>
-      <c r="Z484" s="5"/>
-      <c r="AA484" s="5"/>
-      <c r="AB484" s="5"/>
-      <c r="AC484" s="5"/>
-      <c r="AD484" s="5"/>
-      <c r="AE484" s="5"/>
-      <c r="AF484" s="5"/>
-      <c r="AG484" s="5"/>
-      <c r="AH484" s="5"/>
+      <c r="D484" s="3"/>
+      <c r="E484" s="27"/>
+      <c r="F484" s="27"/>
+      <c r="G484" s="27"/>
+      <c r="H484" s="27"/>
+      <c r="I484" s="27"/>
+      <c r="J484" s="27"/>
+      <c r="K484" s="27"/>
+      <c r="L484" s="27"/>
+      <c r="M484" s="27"/>
+      <c r="N484" s="27"/>
+      <c r="O484" s="27"/>
+      <c r="P484" s="27"/>
+      <c r="Q484" s="27"/>
+      <c r="R484" s="27"/>
+      <c r="S484" s="27"/>
+      <c r="T484" s="27"/>
+      <c r="U484" s="27"/>
+      <c r="V484" s="27"/>
+      <c r="W484" s="27"/>
+      <c r="X484" s="27"/>
+      <c r="Y484" s="27"/>
+      <c r="Z484" s="27"/>
+      <c r="AA484" s="27"/>
+      <c r="AB484" s="27"/>
+      <c r="AC484" s="27"/>
+      <c r="AD484" s="27"/>
+      <c r="AE484" s="27"/>
+      <c r="AF484" s="27"/>
+      <c r="AG484" s="27"/>
+      <c r="AH484" s="27"/>
       <c r="AI484" s="4"/>
       <c r="AJ484" s="5"/>
       <c r="AK484" s="5"/>
@@ -68462,6 +69778,16 @@
     <row r="588" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A285:A324"/>
+    <mergeCell ref="A325:A364"/>
+    <mergeCell ref="A365:A404"/>
+    <mergeCell ref="A405:A444"/>
+    <mergeCell ref="A445:A484"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:AH1"/>
     <mergeCell ref="A205:A244"/>
     <mergeCell ref="A245:A284"/>
     <mergeCell ref="A5:A44"/>
@@ -68469,16 +69795,6 @@
     <mergeCell ref="A85:A124"/>
     <mergeCell ref="A125:A164"/>
     <mergeCell ref="A165:A204"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:AH1"/>
-    <mergeCell ref="A285:A324"/>
-    <mergeCell ref="A325:A364"/>
-    <mergeCell ref="A365:A404"/>
-    <mergeCell ref="A405:A444"/>
-    <mergeCell ref="A445:A484"/>
   </mergeCells>
   <conditionalFormatting sqref="AI2:AQ2">
     <cfRule type="colorScale" priority="100">
